--- a/master/ig/ValueSet-vs-radiotherapy-intent.xlsx
+++ b/master/ig/ValueSet-vs-radiotherapy-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-13T13:56:11+00:00</t>
+    <t>2024-05-15T14:10:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/master/ig/ValueSet-vs-radiotherapy-intent.xlsx
+++ b/master/ig/ValueSet-vs-radiotherapy-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T14:10:31+00:00</t>
+    <t>2024-05-15T14:17:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/master/ig/ValueSet-vs-radiotherapy-intent.xlsx
+++ b/master/ig/ValueSet-vs-radiotherapy-intent.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOWMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://build.fhir.org/ig/arkhn/arkhn-ig-osiris/ValueSet/vs-radiotherapy-intent</t>
+    <t>https://ig-osiris.cancer.fr/ig/osiris/ValueSet/vs-radiotherapy-intent</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,22 +57,28 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T14:17:55+00:00</t>
+    <t>2025-04-22T15:19:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Arkhn</t>
+    <t>institutcancer</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Arkhn (http://arkhn.com, contact@arkhn.com)</t>
-  </si>
-  <si>
-    <t>Nicolas Riss (nicolas@arkhn.com)</t>
+    <t>institutcancer (http://cancer.fr, osiris@institutcancer.fr)</t>
+  </si>
+  <si>
+    <t>Aurélien JOBARD (osiris@institutcancer.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -142,9 +148,6 @@
   </si>
   <si>
     <t>Forensic intent</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -284,7 +287,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -392,20 +395,28 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -427,90 +438,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/master/ig/ValueSet-vs-radiotherapy-intent.xlsx
+++ b/master/ig/ValueSet-vs-radiotherapy-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-22T15:19:59+00:00</t>
+    <t>2025-04-22T15:20:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/master/ig/ValueSet-vs-radiotherapy-intent.xlsx
+++ b/master/ig/ValueSet-vs-radiotherapy-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-22T15:20:25+00:00</t>
+    <t>2025-04-22T15:22:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/master/ig/ValueSet-vs-radiotherapy-intent.xlsx
+++ b/master/ig/ValueSet-vs-radiotherapy-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-22T15:22:37+00:00</t>
+    <t>2025-04-22T15:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/master/ig/ValueSet-vs-radiotherapy-intent.xlsx
+++ b/master/ig/ValueSet-vs-radiotherapy-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-22T15:25:49+00:00</t>
+    <t>2025-04-23T10:11:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
